--- a/CH4/CH4_notes_2021-07-14.xlsx
+++ b/CH4/CH4_notes_2021-07-14.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efarq\OneDrive\Documents\Ecuador2021\Ecuador2021\CH4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tessamd\Desktop\Ecuador2021\CH4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F246E13-6550-46ED-B6D8-FBC7F43D2EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0001928A-2104-4EF5-8489-940E739843E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,13 +59,13 @@
     <t>Soil</t>
   </si>
   <si>
-    <t>GUAY</t>
+    <t>GUAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,11 +411,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8857332F-257E-48FE-A8A8-031B6A8928E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
